--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2054.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2054.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.160644071464154</v>
+        <v>1.208689451217651</v>
       </c>
       <c r="B1">
-        <v>2.586775727002799</v>
+        <v>2.185441732406616</v>
       </c>
       <c r="C1">
-        <v>5.215689340787996</v>
+        <v>4.908904552459717</v>
       </c>
       <c r="D1">
-        <v>2.730069700658666</v>
+        <v>2.090900421142578</v>
       </c>
       <c r="E1">
-        <v>1.21071230480567</v>
+        <v>1.07283091545105</v>
       </c>
     </row>
   </sheetData>
